--- a/EXCEL/SUIVI_DES_TOKENS_GENERES.xlsx
+++ b/EXCEL/SUIVI_DES_TOKENS_GENERES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27621"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27712"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc9a0f68787fe89f/UDEMY/Mes dashbords/Travaux/EXCEL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UDEMY\Mes dashbords\My_Projets\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:80001_{9788D518-E9E9-480E-AAC3-27268DD3AC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC2ECF1D-552C-4C6E-9602-FF4EE71547D3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B54E55-F060-4836-A64A-F49464ADD507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base de Données" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Base de Données'!$A$1:$M$198</definedName>
-    <definedName name="_xlcn.WorksheetConnection_240411COMPILATIONDESTOKENsGENERESMAJCdel.xlsxTableau2" hidden="1">Tableau2[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_240411COMPILATIONDESTOKENsGENERESMAJCdel.xlsxTableau21" hidden="1">Tableau2[]</definedName>
     <definedName name="Segment_ANNEE">#N/A</definedName>
     <definedName name="Segment_EQUIPE">#N/A</definedName>
     <definedName name="Segment_JOURNEE">#N/A</definedName>
@@ -31,14 +31,14 @@
     <customWorkbookView name="Filtre 1" guid="{696A1841-69A1-4ED0-94ED-20FAD93F5E3F}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="1" r:id="rId5"/>
-    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="264" r:id="rId4"/>
+    <pivotCache cacheId="267" r:id="rId5"/>
+    <pivotCache cacheId="270" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
       <x14:pivotCaches>
-        <pivotCache cacheId="3" r:id="rId7"/>
+        <pivotCache cacheId="263" r:id="rId7"/>
       </x14:pivotCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -79,7 +79,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{28F1F508-DB16-4FBD-A9E7-FAF1F4C80D9E}" keepAlive="1" name="ThisWorkbookDataModel" description="Modèle de données" type="5" refreshedVersion="6" minRefreshableVersion="5" background="1">
+  <connection id="1" xr16:uid="{28F1F508-DB16-4FBD-A9E7-FAF1F4C80D9E}" keepAlive="1" name="ThisWorkbookDataModel" description="Modèle de données" type="5" refreshedVersion="8" minRefreshableVersion="5" background="1">
     <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
     <extLst>
@@ -92,7 +92,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Tableau2" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_240411COMPILATIONDESTOKENsGENERESMAJCdel.xlsxTableau2"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_240411COMPILATIONDESTOKENsGENERESMAJCdel.xlsxTableau21"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -2141,9 +2141,6 @@
     <t>GENERE DEPUIS LE 06/02/2024 A 16:20</t>
   </si>
   <si>
-    <t>Étiquettes de lignes</t>
-  </si>
-  <si>
     <t>LUNDI</t>
   </si>
   <si>
@@ -2162,9 +2159,6 @@
     <t>SAMEDI</t>
   </si>
   <si>
-    <t>Total général</t>
-  </si>
-  <si>
     <t>6801-0436-7334-2113-4636</t>
   </si>
   <si>
@@ -2183,9 +2177,6 @@
     <t>Nbres de demandes</t>
   </si>
   <si>
-    <t>(vide)</t>
-  </si>
-  <si>
     <t>Jours</t>
   </si>
   <si>
@@ -2229,6 +2220,15 @@
   </si>
   <si>
     <t>Traité a moitié</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
@@ -2482,7 +2482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2641,34 +2641,45 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -5007,7 +5018,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Rapport des Tokens'!$M$8</c:f>
+              <c:f>'Rapport des Tokens'!$N$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5057,7 +5068,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Rapport des Tokens'!$L$9:$L$15</c:f>
+              <c:f>'Rapport des Tokens'!$M$9:$M$15</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -5083,7 +5094,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Rapport des Tokens'!$M$9:$M$15</c:f>
+              <c:f>'Rapport des Tokens'!$N$9:$N$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5119,7 +5130,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Rapport des Tokens'!$N$8</c:f>
+              <c:f>'Rapport des Tokens'!$O$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5169,7 +5180,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Rapport des Tokens'!$L$9:$L$15</c:f>
+              <c:f>'Rapport des Tokens'!$M$9:$M$15</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -5195,7 +5206,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Rapport des Tokens'!$N$9:$N$15</c:f>
+              <c:f>'Rapport des Tokens'!$O$9:$O$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5231,7 +5242,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Rapport des Tokens'!$O$8</c:f>
+              <c:f>'Rapport des Tokens'!$P$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5281,7 +5292,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Rapport des Tokens'!$L$9:$L$15</c:f>
+              <c:f>'Rapport des Tokens'!$M$9:$M$15</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -5307,7 +5318,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Rapport des Tokens'!$O$9:$O$15</c:f>
+              <c:f>'Rapport des Tokens'!$P$9:$P$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5543,7 +5554,6 @@
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
-        <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -6183,7 +6193,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-53EF-4A45-BCE4-CDD9DB8D5B3B}"/>
+              <c16:uniqueId val="{00000009-6C28-4344-AE43-C353C5B9D489}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6285,7 +6295,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-53EF-4A45-BCE4-CDD9DB8D5B3B}"/>
+              <c16:uniqueId val="{0000000C-6C28-4344-AE43-C353C5B9D489}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8216,16 +8226,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>762001</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>33336</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>170920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>733766</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>687917</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>90485</xdr:rowOff>
+      <xdr:rowOff>37569</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8255,13 +8265,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>150019</xdr:colOff>
+      <xdr:colOff>150018</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>740568</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>486833</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
@@ -8293,18 +8303,18 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>151821</xdr:colOff>
+      <xdr:colOff>120071</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>52728</xdr:rowOff>
+      <xdr:rowOff>42145</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>326571</xdr:colOff>
+      <xdr:colOff>813404</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
+      <xdr:rowOff>125489</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="16" name="EQUIPE">
@@ -8315,7 +8325,7 @@
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks/>
+              <a:graphicFrameLocks noChangeAspect="1" noMove="1" noResize="1"/>
             </xdr:cNvGraphicFramePr>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -8329,7 +8339,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8339,8 +8349,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4193142" y="52728"/>
-              <a:ext cx="3141108" cy="1063058"/>
+              <a:off x="4152321" y="42145"/>
+              <a:ext cx="3127500" cy="1057011"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8359,32 +8369,32 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="fr-FR" sz="1100"/>
-                <a:t>Cette forme représente un segment. Les segments sont pris en charge dans Excel 2010 ou version ultérieure.
-En revanche, si la forme a été modifiée dans une version précédente d’Excel, ou si le classeur a été enregistré dans Excel 2003 ou une version précédente, vous ne pouvez pas utiliser le segment.</a:t>
+                <a:rPr lang="fr-CM" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
-    <xdr:clientData/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>429583</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>16833</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>31273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>122465</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>291798</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="18" name="ANNEE">
@@ -8394,7 +8404,9 @@
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks noChangeAspect="1" noMove="1" noResize="1"/>
+            </xdr:cNvGraphicFramePr>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
             <a:off x="0" y="0"/>
@@ -8407,7 +8419,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8417,8 +8429,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7437262" y="31273"/>
-              <a:ext cx="1339346" cy="1057298"/>
+              <a:off x="7414583" y="31273"/>
+              <a:ext cx="1354465" cy="1051251"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8437,32 +8449,32 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="fr-FR" sz="1100"/>
-                <a:t>Cette forme représente un segment. Les segments sont pris en charge dans Excel 2010 ou version ultérieure.
-En revanche, si la forme a été modifiée dans une version précédente d’Excel, ou si le classeur a été enregistré dans Excel 2003 ou une version précédente, vous ne pouvez pas utiliser le segment.</a:t>
+                <a:rPr lang="fr-CM" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
-    <xdr:clientData/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>576248</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>89414</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38789</xdr:rowOff>
+      <xdr:rowOff>49372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>636701</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>382700</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:rowOff>133047</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="19" name="JOURNEE">
@@ -8473,7 +8485,7 @@
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks noChangeAspect="1"/>
+              <a:graphicFrameLocks noChangeAspect="1" noMove="1" noResize="1"/>
             </xdr:cNvGraphicFramePr>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -8487,7 +8499,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8497,8 +8509,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10727177" y="38789"/>
-              <a:ext cx="2033488" cy="1063389"/>
+              <a:off x="10704497" y="49372"/>
+              <a:ext cx="2028953" cy="1057342"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8517,32 +8529,32 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="fr-FR" sz="1100"/>
-                <a:t>Cette forme représente un segment. Les segments sont pris en charge dans Excel 2010 ou version ultérieure.
-En revanche, si la forme a été modifiée dans une version précédente d’Excel, ou si le classeur a été enregistré dans Excel 2003 ou une version précédente, vous ne pouvez pas utiliser le segment.</a:t>
+                <a:rPr lang="fr-CM" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
-    <xdr:clientData/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>242589</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>411922</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>44766</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>511916</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>35666</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>122464</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="20" name="MOIS">
@@ -8552,7 +8564,9 @@
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks noChangeAspect="1" noMove="1" noResize="1"/>
+            </xdr:cNvGraphicFramePr>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
             <a:off x="0" y="0"/>
@@ -8565,7 +8579,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8575,8 +8589,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8896732" y="44766"/>
-              <a:ext cx="1766113" cy="1057412"/>
+              <a:off x="8889172" y="44766"/>
+              <a:ext cx="1761577" cy="1051365"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8595,16 +8609,16 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="fr-FR" sz="1100"/>
-                <a:t>Cette forme représente un segment. Les segments sont pris en charge dans Excel 2010 ou version ultérieure.
-En revanche, si la forme a été modifiée dans une version précédente d’Excel, ou si le classeur a été enregistré dans Excel 2003 ou une version précédente, vous ne pouvez pas utiliser le segment.</a:t>
+                <a:rPr lang="fr-CM" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
-    <xdr:clientData/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
@@ -8671,7 +8685,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>jeudi 25 avril 2024</a:t>
+            <a:t>mercredi 15 mai 2024</a:t>
           </a:fld>
           <a:endParaRPr lang="fr-FR" sz="4800" b="1" u="none">
             <a:latin typeface="Algerian" panose="04020705040A02060702" pitchFamily="82" charset="0"/>
@@ -8719,13 +8733,285 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>529166</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D7D24C3-C8E6-B186-F306-36E2B17DA51B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6656916" y="84667"/>
+          <a:ext cx="338667" cy="169333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CM" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>321733</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>46566</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EE626E8-6357-0614-BAA1-C044B4D515DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8079316" y="67733"/>
+          <a:ext cx="338667" cy="169333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CM" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>124883</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>82549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>61382</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39E0CB69-21A5-A758-D89F-B5D07BD4307C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9935633" y="82549"/>
+          <a:ext cx="338667" cy="169333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CM" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>86782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>2117</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>65615</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DD9ABE0-6AD7-930F-75B4-40A43B8677FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12014200" y="86782"/>
+          <a:ext cx="338667" cy="169333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CM" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Jean Rodrigue Awono" refreshedDate="45405.52020983796" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{CC7A3AFD-2C81-4EE0-AE2A-82B720BEA347}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="JEAN RODRIGUE AWONO" refreshedDate="45427.236807638888" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{CC7A3AFD-2C81-4EE0-AE2A-82B720BEA347}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="6">
+  <cacheFields count="9">
     <cacheField name="[Tableau2].[JOURS].[JOURS]" caption="JOURS" numFmtId="0" hierarchy="14" level="1">
       <sharedItems count="6">
         <s v="JEUDI"/>
@@ -8743,6 +9029,15 @@
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
     </cacheField>
     <cacheField name="[Tableau2].[EQUIPE].[EQUIPE]" caption="EQUIPE" numFmtId="0" hierarchy="7" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Tableau2].[ANNEE].[ANNEE]" caption="ANNEE" numFmtId="0" hierarchy="15" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Tableau2].[JOURNEE].[JOURNEE]" caption="JOURNEE" numFmtId="0" hierarchy="16" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Tableau2].[MOIS].[MOIS]" caption="MOIS" numFmtId="0" hierarchy="13" level="1">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
     </cacheField>
   </cacheFields>
@@ -8770,15 +9065,30 @@
     <cacheHierarchy uniqueName="[Tableau2].[ACTIVATION]" caption="ACTIVATION" attribute="1" defaultMemberUniqueName="[Tableau2].[ACTIVATION].[All]" allUniqueName="[Tableau2].[ACTIVATION].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Tableau2].[DATE ACTIVATION]" caption="DATE ACTIVATION" attribute="1" time="1" defaultMemberUniqueName="[Tableau2].[DATE ACTIVATION].[All]" allUniqueName="[Tableau2].[DATE ACTIVATION].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Tableau2].[OBSERVATIONS]" caption="OBSERVATIONS" attribute="1" defaultMemberUniqueName="[Tableau2].[OBSERVATIONS].[All]" allUniqueName="[Tableau2].[OBSERVATIONS].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tableau2].[MOIS]" caption="MOIS" attribute="1" defaultMemberUniqueName="[Tableau2].[MOIS].[All]" allUniqueName="[Tableau2].[MOIS].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tableau2].[MOIS]" caption="MOIS" attribute="1" defaultMemberUniqueName="[Tableau2].[MOIS].[All]" allUniqueName="[Tableau2].[MOIS].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="8"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Tableau2].[JOURS]" caption="JOURS" attribute="1" defaultMemberUniqueName="[Tableau2].[JOURS].[All]" allUniqueName="[Tableau2].[JOURS].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
         <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Tableau2].[ANNEE]" caption="ANNEE" attribute="1" defaultMemberUniqueName="[Tableau2].[ANNEE].[All]" allUniqueName="[Tableau2].[ANNEE].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tableau2].[JOURNEE]" caption="JOURNEE" attribute="1" defaultMemberUniqueName="[Tableau2].[JOURNEE].[All]" allUniqueName="[Tableau2].[JOURNEE].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tableau2].[ANNEE]" caption="ANNEE" attribute="1" defaultMemberUniqueName="[Tableau2].[ANNEE].[All]" allUniqueName="[Tableau2].[ANNEE].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="6"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Tableau2].[JOURNEE]" caption="JOURNEE" attribute="1" defaultMemberUniqueName="[Tableau2].[JOURNEE].[All]" allUniqueName="[Tableau2].[JOURNEE].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="7"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Tableau2].[Nbres de demandes]" caption="Nbres de demandes" attribute="1" defaultMemberUniqueName="[Tableau2].[Nbres de demandes].[All]" allUniqueName="[Tableau2].[Nbres de demandes].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Tableau2].[Traitement]" caption="Traitement" attribute="1" defaultMemberUniqueName="[Tableau2].[Traitement].[All]" allUniqueName="[Tableau2].[Traitement].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Tableau2].[Etat du traitement]" caption="Etat du traitement" attribute="1" defaultMemberUniqueName="[Tableau2].[Etat du traitement].[All]" allUniqueName="[Tableau2].[Etat du traitement].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -8859,9 +9169,150 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Jean Rodrigue Awono" refreshedDate="45405.520210300929" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{4F4B7AA7-B655-4977-A2CF-AD575E9DB005}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="JEAN RODRIGUE AWONO" refreshedDate="45427.236809259259" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{80821406-1851-4BCF-A21C-5228624C8DAF}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="4">
+  <cacheFields count="5">
+    <cacheField name="[Tableau2].[EQUIPE].[EQUIPE]" caption="EQUIPE" numFmtId="0" hierarchy="7" level="1">
+      <sharedItems containsBlank="1" count="11">
+        <m/>
+        <s v="EAT 1"/>
+        <s v="EAT 2"/>
+        <s v="EAT 3"/>
+        <s v="EAT 4"/>
+        <s v="EUROPE"/>
+        <s v="SAT TECH"/>
+        <s v="SAT TECH 1"/>
+        <s v="SAT TECH 2"/>
+        <s v="SAT TECH 3"/>
+        <s v="TMC 1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Nombre de WR]" caption="Nombre de WR" numFmtId="0" hierarchy="23" level="32767"/>
+    <cacheField name="[Tableau2].[ANNEE].[ANNEE]" caption="ANNEE" numFmtId="0" hierarchy="15" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Tableau2].[JOURNEE].[JOURNEE]" caption="JOURNEE" numFmtId="0" hierarchy="16" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Tableau2].[MOIS].[MOIS]" caption="MOIS" numFmtId="0" hierarchy="13" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="28">
+    <cacheHierarchy uniqueName="[Tableau2].[DATE D'ENTREE]" caption="DATE D'ENTREE" attribute="1" time="1" defaultMemberUniqueName="[Tableau2].[DATE D'ENTREE].[All]" allUniqueName="[Tableau2].[DATE D'ENTREE].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tableau2].[HEURE ENTREE]" caption="HEURE ENTREE" attribute="1" time="1" defaultMemberUniqueName="[Tableau2].[HEURE ENTREE].[All]" allUniqueName="[Tableau2].[HEURE ENTREE].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tableau2].[NOM GENERATEUR]" caption="NOM GENERATEUR" attribute="1" defaultMemberUniqueName="[Tableau2].[NOM GENERATEUR].[All]" allUniqueName="[Tableau2].[NOM GENERATEUR].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tableau2].[DATE GENERATION]" caption="DATE GENERATION" attribute="1" defaultMemberUniqueName="[Tableau2].[DATE GENERATION].[All]" allUniqueName="[Tableau2].[DATE GENERATION].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tableau2].[HEURE TRAITEMENT]" caption="HEURE TRAITEMENT" attribute="1" defaultMemberUniqueName="[Tableau2].[HEURE TRAITEMENT].[All]" allUniqueName="[Tableau2].[HEURE TRAITEMENT].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tableau2].[WR]" caption="WR" attribute="1" defaultMemberUniqueName="[Tableau2].[WR].[All]" allUniqueName="[Tableau2].[WR].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tableau2].[METER]" caption="METER" attribute="1" defaultMemberUniqueName="[Tableau2].[METER].[All]" allUniqueName="[Tableau2].[METER].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tableau2].[EQUIPE]" caption="EQUIPE" attribute="1" defaultMemberUniqueName="[Tableau2].[EQUIPE].[All]" allUniqueName="[Tableau2].[EQUIPE].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Tableau2].[CT]" caption="CT" attribute="1" defaultMemberUniqueName="[Tableau2].[CT].[All]" allUniqueName="[Tableau2].[CT].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tableau2].[MP]" caption="MP" attribute="1" defaultMemberUniqueName="[Tableau2].[MP].[All]" allUniqueName="[Tableau2].[MP].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tableau2].[ACTIVATION]" caption="ACTIVATION" attribute="1" defaultMemberUniqueName="[Tableau2].[ACTIVATION].[All]" allUniqueName="[Tableau2].[ACTIVATION].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tableau2].[DATE ACTIVATION]" caption="DATE ACTIVATION" attribute="1" time="1" defaultMemberUniqueName="[Tableau2].[DATE ACTIVATION].[All]" allUniqueName="[Tableau2].[DATE ACTIVATION].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tableau2].[OBSERVATIONS]" caption="OBSERVATIONS" attribute="1" defaultMemberUniqueName="[Tableau2].[OBSERVATIONS].[All]" allUniqueName="[Tableau2].[OBSERVATIONS].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tableau2].[MOIS]" caption="MOIS" attribute="1" defaultMemberUniqueName="[Tableau2].[MOIS].[All]" allUniqueName="[Tableau2].[MOIS].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="4"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Tableau2].[JOURS]" caption="JOURS" attribute="1" defaultMemberUniqueName="[Tableau2].[JOURS].[All]" allUniqueName="[Tableau2].[JOURS].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tableau2].[ANNEE]" caption="ANNEE" attribute="1" defaultMemberUniqueName="[Tableau2].[ANNEE].[All]" allUniqueName="[Tableau2].[ANNEE].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Tableau2].[JOURNEE]" caption="JOURNEE" attribute="1" defaultMemberUniqueName="[Tableau2].[JOURNEE].[All]" allUniqueName="[Tableau2].[JOURNEE].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Tableau2].[Nbres de demandes]" caption="Nbres de demandes" attribute="1" defaultMemberUniqueName="[Tableau2].[Nbres de demandes].[All]" allUniqueName="[Tableau2].[Nbres de demandes].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tableau2].[Traitement]" caption="Traitement" attribute="1" defaultMemberUniqueName="[Tableau2].[Traitement].[All]" allUniqueName="[Tableau2].[Traitement].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tableau2].[Etat du traitement]" caption="Etat du traitement" attribute="1" defaultMemberUniqueName="[Tableau2].[Etat du traitement].[All]" allUniqueName="[Tableau2].[Etat du traitement].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Tableau2]" caption="__XL_Count Tableau2" measure="1" displayFolder="" measureGroup="Tableau2" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Nombre de EQUIPE]" caption="Nombre de EQUIPE" measure="1" displayFolder="" measureGroup="Tableau2" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="7"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Nombre de WR]" caption="Nombre de WR" measure="1" displayFolder="" measureGroup="Tableau2" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="5"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Somme de Nbres de demandes]" caption="Somme de Nbres de demandes" measure="1" displayFolder="" measureGroup="Tableau2" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="17"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Nombre de CT]" caption="Nombre de CT" measure="1" displayFolder="" measureGroup="Tableau2" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="8"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Nombre de MP]" caption="Nombre de MP" measure="1" displayFolder="" measureGroup="Tableau2" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="9"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Nombre de Etat du traitement]" caption="Nombre de Etat du traitement" measure="1" displayFolder="" measureGroup="Tableau2" count="0" hidden="1">
+      <extLst>
+        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
+          <x15:cacheHierarchy aggregatedColumn="19"/>
+        </ext>
+      </extLst>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="2">
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Tableau2" uniqueName="[Tableau2]" caption="Tableau2"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Tableau2" caption="Tableau2"/>
+  </measureGroups>
+  <maps count="1">
+    <map measureGroup="0" dimension="1"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+    <ext xmlns:xxpim="http://schemas.microsoft.com/office/spreadsheetml/2020/pivotNov2020" uri="{48A13866-0669-42A6-8768-4E36796AE8C3}">
+      <xxpim:implicitMeasureSupport>1</xxpim:implicitMeasureSupport>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="JEAN RODRIGUE AWONO" refreshedDate="45427.236810995368" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{4F4B7AA7-B655-4977-A2CF-AD575E9DB005}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="7">
     <cacheField name="[Tableau2].[JOURS].[JOURS]" caption="JOURS" numFmtId="0" hierarchy="14" level="1">
       <sharedItems count="6">
         <s v="JEUDI"/>
@@ -8881,6 +9332,15 @@
     </cacheField>
     <cacheField name="[Measures].[Nombre de Etat du traitement]" caption="Nombre de Etat du traitement" numFmtId="0" hierarchy="27" level="32767"/>
     <cacheField name="[Tableau2].[EQUIPE].[EQUIPE]" caption="EQUIPE" numFmtId="0" hierarchy="7" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Tableau2].[ANNEE].[ANNEE]" caption="ANNEE" numFmtId="0" hierarchy="15" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Tableau2].[JOURNEE].[JOURNEE]" caption="JOURNEE" numFmtId="0" hierarchy="16" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Tableau2].[MOIS].[MOIS]" caption="MOIS" numFmtId="0" hierarchy="13" level="1">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
     </cacheField>
   </cacheFields>
@@ -8903,15 +9363,30 @@
     <cacheHierarchy uniqueName="[Tableau2].[ACTIVATION]" caption="ACTIVATION" attribute="1" defaultMemberUniqueName="[Tableau2].[ACTIVATION].[All]" allUniqueName="[Tableau2].[ACTIVATION].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Tableau2].[DATE ACTIVATION]" caption="DATE ACTIVATION" attribute="1" time="1" defaultMemberUniqueName="[Tableau2].[DATE ACTIVATION].[All]" allUniqueName="[Tableau2].[DATE ACTIVATION].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Tableau2].[OBSERVATIONS]" caption="OBSERVATIONS" attribute="1" defaultMemberUniqueName="[Tableau2].[OBSERVATIONS].[All]" allUniqueName="[Tableau2].[OBSERVATIONS].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tableau2].[MOIS]" caption="MOIS" attribute="1" defaultMemberUniqueName="[Tableau2].[MOIS].[All]" allUniqueName="[Tableau2].[MOIS].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tableau2].[MOIS]" caption="MOIS" attribute="1" defaultMemberUniqueName="[Tableau2].[MOIS].[All]" allUniqueName="[Tableau2].[MOIS].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="6"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Tableau2].[JOURS]" caption="JOURS" attribute="1" defaultMemberUniqueName="[Tableau2].[JOURS].[All]" allUniqueName="[Tableau2].[JOURS].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
         <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Tableau2].[ANNEE]" caption="ANNEE" attribute="1" defaultMemberUniqueName="[Tableau2].[ANNEE].[All]" allUniqueName="[Tableau2].[ANNEE].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tableau2].[JOURNEE]" caption="JOURNEE" attribute="1" defaultMemberUniqueName="[Tableau2].[JOURNEE].[All]" allUniqueName="[Tableau2].[JOURNEE].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Tableau2].[ANNEE]" caption="ANNEE" attribute="1" defaultMemberUniqueName="[Tableau2].[ANNEE].[All]" allUniqueName="[Tableau2].[ANNEE].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="4"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Tableau2].[JOURNEE]" caption="JOURNEE" attribute="1" defaultMemberUniqueName="[Tableau2].[JOURNEE].[All]" allUniqueName="[Tableau2].[JOURNEE].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="5"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Tableau2].[Nbres de demandes]" caption="Nbres de demandes" attribute="1" defaultMemberUniqueName="[Tableau2].[Nbres de demandes].[All]" allUniqueName="[Tableau2].[Nbres de demandes].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Tableau2].[Traitement]" caption="Traitement" attribute="1" defaultMemberUniqueName="[Tableau2].[Traitement].[All]" allUniqueName="[Tableau2].[Traitement].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Tableau2].[Etat du traitement]" caption="Etat du traitement" attribute="1" defaultMemberUniqueName="[Tableau2].[Etat du traitement].[All]" allUniqueName="[Tableau2].[Etat du traitement].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
@@ -8990,125 +9465,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Jean Rodrigue Awono" refreshedDate="45405.520210879629" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{80821406-1851-4BCF-A21C-5228624C8DAF}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="2">
-    <cacheField name="[Tableau2].[EQUIPE].[EQUIPE]" caption="EQUIPE" numFmtId="0" hierarchy="7" level="1">
-      <sharedItems containsBlank="1" count="11">
-        <m/>
-        <s v="EAT 1"/>
-        <s v="EAT 2"/>
-        <s v="EAT 3"/>
-        <s v="EAT 4"/>
-        <s v="EUROPE"/>
-        <s v="SAT TECH"/>
-        <s v="SAT TECH 1"/>
-        <s v="SAT TECH 2"/>
-        <s v="SAT TECH 3"/>
-        <s v="TMC 1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Measures].[Nombre de WR]" caption="Nombre de WR" numFmtId="0" hierarchy="23" level="32767"/>
-  </cacheFields>
-  <cacheHierarchies count="28">
-    <cacheHierarchy uniqueName="[Tableau2].[DATE D'ENTREE]" caption="DATE D'ENTREE" attribute="1" time="1" defaultMemberUniqueName="[Tableau2].[DATE D'ENTREE].[All]" allUniqueName="[Tableau2].[DATE D'ENTREE].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tableau2].[HEURE ENTREE]" caption="HEURE ENTREE" attribute="1" time="1" defaultMemberUniqueName="[Tableau2].[HEURE ENTREE].[All]" allUniqueName="[Tableau2].[HEURE ENTREE].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tableau2].[NOM GENERATEUR]" caption="NOM GENERATEUR" attribute="1" defaultMemberUniqueName="[Tableau2].[NOM GENERATEUR].[All]" allUniqueName="[Tableau2].[NOM GENERATEUR].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tableau2].[DATE GENERATION]" caption="DATE GENERATION" attribute="1" defaultMemberUniqueName="[Tableau2].[DATE GENERATION].[All]" allUniqueName="[Tableau2].[DATE GENERATION].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tableau2].[HEURE TRAITEMENT]" caption="HEURE TRAITEMENT" attribute="1" defaultMemberUniqueName="[Tableau2].[HEURE TRAITEMENT].[All]" allUniqueName="[Tableau2].[HEURE TRAITEMENT].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tableau2].[WR]" caption="WR" attribute="1" defaultMemberUniqueName="[Tableau2].[WR].[All]" allUniqueName="[Tableau2].[WR].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tableau2].[METER]" caption="METER" attribute="1" defaultMemberUniqueName="[Tableau2].[METER].[All]" allUniqueName="[Tableau2].[METER].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tableau2].[EQUIPE]" caption="EQUIPE" attribute="1" defaultMemberUniqueName="[Tableau2].[EQUIPE].[All]" allUniqueName="[Tableau2].[EQUIPE].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Tableau2].[CT]" caption="CT" attribute="1" defaultMemberUniqueName="[Tableau2].[CT].[All]" allUniqueName="[Tableau2].[CT].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tableau2].[MP]" caption="MP" attribute="1" defaultMemberUniqueName="[Tableau2].[MP].[All]" allUniqueName="[Tableau2].[MP].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tableau2].[ACTIVATION]" caption="ACTIVATION" attribute="1" defaultMemberUniqueName="[Tableau2].[ACTIVATION].[All]" allUniqueName="[Tableau2].[ACTIVATION].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tableau2].[DATE ACTIVATION]" caption="DATE ACTIVATION" attribute="1" time="1" defaultMemberUniqueName="[Tableau2].[DATE ACTIVATION].[All]" allUniqueName="[Tableau2].[DATE ACTIVATION].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tableau2].[OBSERVATIONS]" caption="OBSERVATIONS" attribute="1" defaultMemberUniqueName="[Tableau2].[OBSERVATIONS].[All]" allUniqueName="[Tableau2].[OBSERVATIONS].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tableau2].[MOIS]" caption="MOIS" attribute="1" defaultMemberUniqueName="[Tableau2].[MOIS].[All]" allUniqueName="[Tableau2].[MOIS].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tableau2].[JOURS]" caption="JOURS" attribute="1" defaultMemberUniqueName="[Tableau2].[JOURS].[All]" allUniqueName="[Tableau2].[JOURS].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tableau2].[ANNEE]" caption="ANNEE" attribute="1" defaultMemberUniqueName="[Tableau2].[ANNEE].[All]" allUniqueName="[Tableau2].[ANNEE].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tableau2].[JOURNEE]" caption="JOURNEE" attribute="1" defaultMemberUniqueName="[Tableau2].[JOURNEE].[All]" allUniqueName="[Tableau2].[JOURNEE].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tableau2].[Nbres de demandes]" caption="Nbres de demandes" attribute="1" defaultMemberUniqueName="[Tableau2].[Nbres de demandes].[All]" allUniqueName="[Tableau2].[Nbres de demandes].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tableau2].[Traitement]" caption="Traitement" attribute="1" defaultMemberUniqueName="[Tableau2].[Traitement].[All]" allUniqueName="[Tableau2].[Traitement].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Tableau2].[Etat du traitement]" caption="Etat du traitement" attribute="1" defaultMemberUniqueName="[Tableau2].[Etat du traitement].[All]" allUniqueName="[Tableau2].[Etat du traitement].[All]" dimensionUniqueName="[Tableau2]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count Tableau2]" caption="__XL_Count Tableau2" measure="1" displayFolder="" measureGroup="Tableau2" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[Nombre de EQUIPE]" caption="Nombre de EQUIPE" measure="1" displayFolder="" measureGroup="Tableau2" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="7"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Nombre de WR]" caption="Nombre de WR" measure="1" displayFolder="" measureGroup="Tableau2" count="0" oneField="1" hidden="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="5"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Somme de Nbres de demandes]" caption="Somme de Nbres de demandes" measure="1" displayFolder="" measureGroup="Tableau2" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="17"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Nombre de CT]" caption="Nombre de CT" measure="1" displayFolder="" measureGroup="Tableau2" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="8"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Nombre de MP]" caption="Nombre de MP" measure="1" displayFolder="" measureGroup="Tableau2" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="9"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Nombre de Etat du traitement]" caption="Nombre de Etat du traitement" measure="1" displayFolder="" measureGroup="Tableau2" count="0" hidden="1">
-      <extLst>
-        <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="19"/>
-        </ext>
-      </extLst>
-    </cacheHierarchy>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="2">
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Tableau2" uniqueName="[Tableau2]" caption="Tableau2"/>
-  </dimensions>
-  <measureGroups count="1">
-    <measureGroup name="Tableau2" caption="Tableau2"/>
-  </measureGroups>
-  <maps count="1">
-    <map measureGroup="0" dimension="1"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-    <ext xmlns:xxpim="http://schemas.microsoft.com/office/spreadsheetml/2020/pivotNov2020" uri="{48A13866-0669-42A6-8768-4E36796AE8C3}">
-      <xxpim:implicitMeasureSupport>1</xxpim:implicitMeasureSupport>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Jean Rodrigue Awono" refreshedDate="45405.516210995367" backgroundQuery="1" createdVersion="3" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D28ADAA9-1E48-4500-B5F5-FDD692CDD4CA}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="JEAN RODRIGUE AWONO" refreshedDate="45427.236802083331" backgroundQuery="1" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{F6F39B36-11ED-4EBB-B393-8A32B07E551C}">
   <cacheSource type="external" connectionId="1">
     <extLst>
       <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{F057638F-6D5F-4e77-A914-E7F072B9BCA8}">
@@ -9186,16 +9544,19 @@
   <kpis count="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition slicerData="1" pivotCacheId="2116984327" supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+      <x14:pivotCacheDefinition slicerData="1" pivotCacheId="1207333532" supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+    <ext xmlns:xxpim="http://schemas.microsoft.com/office/spreadsheetml/2020/pivotNov2020" uri="{48A13866-0669-42A6-8768-4E36796AE8C3}">
+      <xxpim:implicitMeasureSupport>1</xxpim:implicitMeasureSupport>
     </ext>
   </extLst>
 </pivotCacheDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DE40BB94-871F-4405-BC5E-25F6EE5D6316}" name="Etat du Traitement des Tokens" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" grandTotalCaption="Total" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Jours" colHeaderCaption="">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DE40BB94-871F-4405-BC5E-25F6EE5D6316}" name="Etat du Traitement des Tokens" cacheId="270" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" grandTotalCaption="Total" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Jours" colHeaderCaption="">
   <location ref="F24:J32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
+  <pivotFields count="7">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
       <items count="7">
         <item x="0"/>
@@ -9216,6 +9577,9 @@
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
+    <pivotField allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1"/>
+    <pivotField allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1"/>
+    <pivotField allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1"/>
     <pivotField allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1"/>
   </pivotFields>
   <rowFields count="1">
@@ -9496,9 +9860,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6AAFCE42-DB59-487F-A604-50F7AB0652E0}" name="Tokens/par jours" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" grandTotalCaption="Total " updatedVersion="6" minRefreshableVersion="5" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Jours">
-  <location ref="L8:O15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6AAFCE42-DB59-487F-A604-50F7AB0652E0}" name="Tokens/par jours" cacheId="264" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" grandTotalCaption="Total " updatedVersion="8" minRefreshableVersion="5" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Jours">
+  <location ref="M8:P15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" sortType="ascending" defaultAttributeDrillState="1">
       <items count="7">
         <item x="1"/>
@@ -9518,6 +9882,9 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1"/>
+    <pivotField allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1"/>
+    <pivotField allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1"/>
     <pivotField allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1"/>
   </pivotFields>
   <rowFields count="1">
@@ -9762,9 +10129,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6D0D7121-7840-436E-9EBE-D28F0C79E812}" name="Demande par Equipe" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6D0D7121-7840-436E-9EBE-D28F0C79E812}" name="Demande par Equipe" cacheId="267" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="E2:F14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
+  <pivotFields count="5">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" sortType="ascending" defaultAttributeDrillState="1">
       <items count="12">
         <item x="0"/>
@@ -9791,6 +10158,9 @@
       </autoSortScope>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
+    <pivotField allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1"/>
+    <pivotField allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1"/>
+    <pivotField allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -9908,13 +10278,13 @@
     <pivotTable tabId="5" name="Demande par Equipe"/>
   </pivotTables>
   <data>
-    <olap pivotCacheId="2116984327">
+    <olap pivotCacheId="1207333532">
       <levels count="2">
         <level uniqueName="[Tableau2].[EQUIPE].[(All)]" sourceCaption="(All)" count="0"/>
         <level uniqueName="[Tableau2].[EQUIPE].[EQUIPE]" sourceCaption="EQUIPE" count="11">
           <ranges>
             <range startItem="0">
-              <i n="[Tableau2].[EQUIPE].&amp;" c="(vide)"/>
+              <i n="[Tableau2].[EQUIPE].&amp;" c="(blank)"/>
               <i n="[Tableau2].[EQUIPE].&amp;[EAT 1]" c="EAT 1"/>
               <i n="[Tableau2].[EQUIPE].&amp;[EAT 2]" c="EAT 2"/>
               <i n="[Tableau2].[EQUIPE].&amp;[EAT 3]" c="EAT 3"/>
@@ -9945,7 +10315,7 @@
     <pivotTable tabId="5" name="Demande par Equipe"/>
   </pivotTables>
   <data>
-    <olap pivotCacheId="2116984327">
+    <olap pivotCacheId="1207333532">
       <levels count="2">
         <level uniqueName="[Tableau2].[ANNEE].[(All)]" sourceCaption="(All)" count="0"/>
         <level uniqueName="[Tableau2].[ANNEE].[ANNEE]" sourceCaption="ANNEE" count="1">
@@ -9972,7 +10342,7 @@
     <pivotTable tabId="5" name="Demande par Equipe"/>
   </pivotTables>
   <data>
-    <olap pivotCacheId="2116984327">
+    <olap pivotCacheId="1207333532">
       <levels count="2">
         <level uniqueName="[Tableau2].[JOURNEE].[(All)]" sourceCaption="(All)" count="0"/>
         <level uniqueName="[Tableau2].[JOURNEE].[JOURNEE]" sourceCaption="JOURNEE" count="15">
@@ -10013,7 +10383,7 @@
     <pivotTable tabId="5" name="Demande par Equipe"/>
   </pivotTables>
   <data>
-    <olap pivotCacheId="2116984327">
+    <olap pivotCacheId="1207333532">
       <levels count="2">
         <level uniqueName="[Tableau2].[MOIS].[(All)]" sourceCaption="(All)" count="0"/>
         <level uniqueName="[Tableau2].[MOIS].[MOIS]" sourceCaption="MOIS" count="3">
@@ -10036,10 +10406,10 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="EQUIPE" xr10:uid="{CA9CE9A4-BF24-43A9-A546-4FACB1DAD475}" cache="Segment_EQUIPE" caption="EQUIPES" startItem="6" columnCount="2" level="1" rowHeight="241300"/>
-  <slicer name="ANNEE" xr10:uid="{CF71CC34-C529-4BF5-A811-5AB6F2F4C98A}" cache="Segment_ANNEE" caption="ANNEE" columnCount="2" level="1" rowHeight="241300"/>
-  <slicer name="JOURNEE" xr10:uid="{89A32C08-7525-4456-8812-7D9170B0CD0B}" cache="Segment_JOURNEE" caption="JOURNEE" startItem="8" columnCount="4" level="1" rowHeight="241300"/>
-  <slicer name="MOIS" xr10:uid="{E9C9A74E-1AD6-4C35-997B-9938A2F10C8C}" cache="Segment_MOIS" caption="MOIS" columnCount="2" level="1" rowHeight="241300"/>
+  <slicer name="EQUIPE" xr10:uid="{CA9CE9A4-BF24-43A9-A546-4FACB1DAD475}" cache="Segment_EQUIPE" caption="EQUIPES" startItem="6" columnCount="2" level="1" lockedPosition="1" rowHeight="241300"/>
+  <slicer name="ANNEE" xr10:uid="{CF71CC34-C529-4BF5-A811-5AB6F2F4C98A}" cache="Segment_ANNEE" caption="ANNEE" columnCount="2" level="1" lockedPosition="1" rowHeight="241300"/>
+  <slicer name="JOURNEE" xr10:uid="{89A32C08-7525-4456-8812-7D9170B0CD0B}" cache="Segment_JOURNEE" caption="JOURNEE" startItem="8" columnCount="4" level="1" lockedPosition="1" rowHeight="241300"/>
+  <slicer name="MOIS" xr10:uid="{E9C9A74E-1AD6-4C35-997B-9938A2F10C8C}" cache="Segment_MOIS" caption="MOIS" columnCount="2" level="1" lockedPosition="1" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -10287,7 +10657,7 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="L21" sqref="L21"/>
       <selection pane="topRight" activeCell="A196" sqref="A196"/>
@@ -10370,13 +10740,13 @@
         <v>675</v>
       </c>
       <c r="R1" s="48" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="S1" s="48" t="s">
+        <v>697</v>
+      </c>
+      <c r="T1" s="48" t="s">
         <v>700</v>
-      </c>
-      <c r="T1" s="48" t="s">
-        <v>703</v>
       </c>
       <c r="U1" s="19"/>
       <c r="V1" s="19"/>
@@ -10473,7 +10843,7 @@
         <v>37272883481</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>19</v>
@@ -10540,7 +10910,7 @@
         <v>37272548928</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>22</v>
@@ -10674,7 +11044,7 @@
         <v>37272530579</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>28</v>
@@ -10804,7 +11174,7 @@
         <v>37272519374</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>33</v>
@@ -11056,7 +11426,7 @@
         <v>37272675481</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>43</v>
@@ -11121,7 +11491,7 @@
         <v>37272519630</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>46</v>
@@ -11184,7 +11554,7 @@
         <v>37272675093</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="I14" s="13" t="s">
         <v>49</v>
@@ -11247,7 +11617,7 @@
         <v>37272653082</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>52</v>
@@ -11310,7 +11680,7 @@
         <v>37272653116</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>55</v>
@@ -11373,7 +11743,7 @@
         <v>37272530447</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>58</v>
@@ -11436,7 +11806,7 @@
         <v>37272653041</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I18" s="13" t="s">
         <v>61</v>
@@ -11688,7 +12058,7 @@
         <v>37272530587</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="I22" s="13" t="s">
         <v>74</v>
@@ -11751,7 +12121,7 @@
         <v>37272745862</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="I23" s="13" t="s">
         <v>77</v>
@@ -13153,7 +13523,7 @@
         <v>37272531205</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I45" s="14" t="s">
         <v>143</v>
@@ -13358,7 +13728,7 @@
         <v>37272530470</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I48" s="14" t="s">
         <v>149</v>
@@ -13496,7 +13866,7 @@
         <v>37272674153</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="I50" s="14" t="s">
         <v>155</v>
@@ -13632,7 +14002,7 @@
         <v>37272820608</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I52" s="14" t="s">
         <v>160</v>
@@ -13701,7 +14071,7 @@
         <v>37272520117</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="I53" s="14" t="s">
         <v>163</v>
@@ -13770,7 +14140,7 @@
         <v>37272520091</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="I54" s="14" t="s">
         <v>166</v>
@@ -13839,7 +14209,7 @@
         <v>37272520141</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="I55" s="13"/>
       <c r="J55" s="13"/>
@@ -15351,7 +15721,7 @@
         <v>236</v>
       </c>
       <c r="H77" s="22" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I77" s="13" t="s">
         <v>237</v>
@@ -15485,7 +15855,7 @@
         <v>244</v>
       </c>
       <c r="H79" s="22" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I79" s="13" t="s">
         <v>245</v>
@@ -15552,7 +15922,7 @@
         <v>248</v>
       </c>
       <c r="H80" s="22" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="I80" s="13" t="s">
         <v>249</v>
@@ -15686,7 +16056,7 @@
         <v>255</v>
       </c>
       <c r="H82" s="22" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I82" s="13" t="s">
         <v>256</v>
@@ -16009,7 +16379,7 @@
         <v>272</v>
       </c>
       <c r="H87" s="32" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I87" s="14" t="s">
         <v>273</v>
@@ -16082,7 +16452,7 @@
         <v>276</v>
       </c>
       <c r="H88" s="32" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I88" s="14" t="s">
         <v>277</v>
@@ -16151,7 +16521,7 @@
         <v>280</v>
       </c>
       <c r="H89" s="32" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="I89" s="16" t="s">
         <v>281</v>
@@ -16218,7 +16588,7 @@
         <v>284</v>
       </c>
       <c r="H90" s="22" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I90" s="16" t="s">
         <v>285</v>
@@ -16360,7 +16730,7 @@
         <v>293</v>
       </c>
       <c r="H92" s="22" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I92" s="16" t="s">
         <v>294</v>
@@ -16918,7 +17288,7 @@
         <v>325</v>
       </c>
       <c r="H100" s="22" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I100" s="16" t="s">
         <v>326</v>
@@ -16983,7 +17353,7 @@
         <v>329</v>
       </c>
       <c r="H101" s="22" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="I101" s="16"/>
       <c r="J101" s="16"/>
@@ -17048,7 +17418,7 @@
         <v>331</v>
       </c>
       <c r="H102" s="22" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I102" s="16" t="s">
         <v>332</v>
@@ -17314,7 +17684,7 @@
         <v>343</v>
       </c>
       <c r="H106" s="22" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I106" s="16"/>
       <c r="J106" s="16"/>
@@ -17377,7 +17747,7 @@
         <v>345</v>
       </c>
       <c r="H107" s="22" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I107" s="16" t="s">
         <v>346</v>
@@ -17442,7 +17812,7 @@
         <v>348</v>
       </c>
       <c r="H108" s="22" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="I108" s="16"/>
       <c r="J108" s="16"/>
@@ -17505,7 +17875,7 @@
         <v>350</v>
       </c>
       <c r="H109" s="22" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="I109" s="16" t="s">
         <v>351</v>
@@ -17712,7 +18082,7 @@
         <v>361</v>
       </c>
       <c r="H112" s="22" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="I112" s="16" t="s">
         <v>362</v>
@@ -17781,7 +18151,7 @@
         <v>365</v>
       </c>
       <c r="H113" s="22" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="I113" s="16" t="s">
         <v>366</v>
@@ -17850,7 +18220,7 @@
         <v>369</v>
       </c>
       <c r="H114" s="22" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="I114" s="16" t="s">
         <v>370</v>
@@ -17919,7 +18289,7 @@
         <v>373</v>
       </c>
       <c r="H115" s="22" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="I115" s="16" t="s">
         <v>374</v>
@@ -17988,7 +18358,7 @@
         <v>377</v>
       </c>
       <c r="H116" s="22" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="I116" s="16" t="s">
         <v>378</v>
@@ -18057,7 +18427,7 @@
         <v>381</v>
       </c>
       <c r="H117" s="22" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="I117" s="16" t="s">
         <v>382</v>
@@ -18124,7 +18494,7 @@
         <v>385</v>
       </c>
       <c r="H118" s="22" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="I118" s="16"/>
       <c r="J118" s="16"/>
@@ -18189,7 +18559,7 @@
         <v>387</v>
       </c>
       <c r="H119" s="22" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="I119" s="16" t="s">
         <v>388</v>
@@ -18262,7 +18632,7 @@
         <v>392</v>
       </c>
       <c r="J120" s="16" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K120" s="22"/>
       <c r="L120" s="21"/>
@@ -18330,7 +18700,7 @@
         <v>391</v>
       </c>
       <c r="I121" s="16" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="J121" s="16" t="s">
         <v>394</v>
@@ -18398,7 +18768,7 @@
         <v>396</v>
       </c>
       <c r="H122" s="22" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="I122" s="16" t="s">
         <v>397</v>
@@ -18664,7 +19034,7 @@
         <v>385</v>
       </c>
       <c r="H126" s="22" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="I126" s="16" t="s">
         <v>409</v>
@@ -18731,7 +19101,7 @@
         <v>412</v>
       </c>
       <c r="H127" s="22" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I127" s="16" t="s">
         <v>413</v>
@@ -19010,7 +19380,7 @@
         <v>391</v>
       </c>
       <c r="I131" s="16" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J131" s="16" t="s">
         <v>425</v>
@@ -20160,7 +20530,7 @@
         <v>485</v>
       </c>
       <c r="H148" s="22" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="I148" s="16" t="s">
         <v>486</v>
@@ -20229,7 +20599,7 @@
         <v>318</v>
       </c>
       <c r="H149" s="22" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I149" s="16" t="s">
         <v>489</v>
@@ -20432,7 +20802,7 @@
         <v>498</v>
       </c>
       <c r="H152" s="22" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I152" s="16" t="s">
         <v>499</v>
@@ -20501,7 +20871,7 @@
         <v>502</v>
       </c>
       <c r="H153" s="22" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="I153" s="16" t="s">
         <v>503</v>
@@ -20639,7 +21009,7 @@
         <v>510</v>
       </c>
       <c r="H155" s="22" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="I155" s="16" t="s">
         <v>511</v>
@@ -20775,7 +21145,7 @@
         <v>518</v>
       </c>
       <c r="H157" s="22" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I157" s="16"/>
       <c r="J157" s="16"/>
@@ -20840,7 +21210,7 @@
         <v>520</v>
       </c>
       <c r="H158" s="22" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="I158" s="16" t="s">
         <v>521</v>
@@ -21047,7 +21417,7 @@
         <v>532</v>
       </c>
       <c r="H161" s="22" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="I161" s="16" t="s">
         <v>533</v>
@@ -21254,7 +21624,7 @@
         <v>544</v>
       </c>
       <c r="H164" s="22" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I164" s="16" t="s">
         <v>545</v>
@@ -21392,7 +21762,7 @@
         <v>552</v>
       </c>
       <c r="H166" s="22" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="I166" s="16" t="s">
         <v>553</v>
@@ -21530,7 +21900,7 @@
         <v>560</v>
       </c>
       <c r="H168" s="22" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="I168" s="16"/>
       <c r="J168" s="16"/>
@@ -21595,7 +21965,7 @@
         <v>562</v>
       </c>
       <c r="H169" s="22" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="I169" s="16" t="s">
         <v>563</v>
@@ -21871,7 +22241,7 @@
         <v>518</v>
       </c>
       <c r="H173" s="22" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I173" s="16" t="s">
         <v>578</v>
@@ -22009,7 +22379,7 @@
         <v>585</v>
       </c>
       <c r="H175" s="22" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="I175" s="16" t="s">
         <v>586</v>
@@ -22078,7 +22448,7 @@
         <v>589</v>
       </c>
       <c r="H176" s="22" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="I176" s="16" t="s">
         <v>590</v>
@@ -22218,7 +22588,7 @@
         <v>598</v>
       </c>
       <c r="H178" s="22" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="I178" s="16" t="s">
         <v>599</v>
@@ -22425,7 +22795,7 @@
         <v>608</v>
       </c>
       <c r="H181" s="22" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="I181" s="16" t="s">
         <v>609</v>
@@ -22494,7 +22864,7 @@
         <v>612</v>
       </c>
       <c r="H182" s="22" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I182" s="16" t="s">
         <v>613</v>
@@ -22559,7 +22929,7 @@
         <v>615</v>
       </c>
       <c r="H183" s="22" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="I183" s="16" t="s">
         <v>616</v>
@@ -22628,7 +22998,7 @@
         <v>619</v>
       </c>
       <c r="H184" s="22" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I184" s="16" t="s">
         <v>620</v>
@@ -22697,7 +23067,7 @@
         <v>623</v>
       </c>
       <c r="H185" s="22" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I185" s="16" t="s">
         <v>624</v>
@@ -23249,7 +23619,7 @@
         <v>608</v>
       </c>
       <c r="H193" s="22" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="I193" s="16" t="s">
         <v>654</v>
@@ -23320,7 +23690,7 @@
         <v>657</v>
       </c>
       <c r="H194" s="22" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="I194" s="16" t="s">
         <v>658</v>
@@ -23387,7 +23757,7 @@
         <v>661</v>
       </c>
       <c r="H195" s="22" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="I195" s="16" t="s">
         <v>662</v>
@@ -23454,7 +23824,7 @@
         <v>664</v>
       </c>
       <c r="H196" s="22" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="I196" s="16" t="s">
         <v>665</v>
@@ -23590,7 +23960,7 @@
         <v>671</v>
       </c>
       <c r="H198" s="22" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I198" s="16"/>
       <c r="J198" s="16"/>
@@ -45896,7 +46266,7 @@
   <customSheetViews>
     <customSheetView guid="{696A1841-69A1-4ED0-94ED-20FAD93F5E3F}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:Z129" xr:uid="{2435B60A-7CA3-4862-A33A-588935D1E320}"/>
+      <autoFilter ref="A1:Z129" xr:uid="{468B5493-1C4D-40F2-A781-24D62F4E8138}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="757856124"/>
@@ -45949,11 +46319,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FAB263-01CC-48FD-B3DC-86BF606E7AA5}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A2:O32"/>
+  <dimension ref="A2:P32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45963,24 +46333,23 @@
     <col min="3" max="3" width="14.42578125" style="44" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="44" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="44" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" style="44" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="44" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="44" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="44" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" style="44" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="44" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="44" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10" style="44" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" style="44" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" style="44" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.42578125" style="44"/>
     <col min="18" max="18" width="12.5703125" style="44" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.42578125" style="44" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="11.42578125" style="44"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
@@ -45989,7 +46358,7 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
       <c r="D3" s="45"/>
@@ -45998,7 +46367,7 @@
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="50"/>
       <c r="B4" s="50"/>
       <c r="C4" s="50"/>
@@ -46008,130 +46377,130 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="50"/>
       <c r="B5" s="50"/>
       <c r="C5" s="50"/>
       <c r="D5" s="50"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L8" s="54" t="s">
-        <v>694</v>
-      </c>
-      <c r="M8" s="52" t="s">
-        <v>701</v>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M8" s="54" t="s">
+        <v>691</v>
       </c>
       <c r="N8" s="52" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="O8" s="52" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L9" s="63" t="s">
+        <v>699</v>
+      </c>
+      <c r="P8" s="52" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M9" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="N9" s="63">
+        <v>64</v>
+      </c>
+      <c r="O9" s="64">
+        <v>65</v>
+      </c>
+      <c r="P9" s="65">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M10" s="62" t="s">
         <v>680</v>
       </c>
-      <c r="M9" s="55">
-        <v>64</v>
-      </c>
-      <c r="N9" s="56">
-        <v>65</v>
-      </c>
-      <c r="O9" s="54">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L10" s="63" t="s">
+      <c r="N10" s="63">
+        <v>49</v>
+      </c>
+      <c r="O10" s="64">
+        <v>51</v>
+      </c>
+      <c r="P10" s="65">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M11" s="62" t="s">
         <v>681</v>
       </c>
-      <c r="M10" s="55">
-        <v>49</v>
-      </c>
-      <c r="N10" s="56">
-        <v>51</v>
-      </c>
-      <c r="O10" s="54">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L11" s="63" t="s">
+      <c r="N11" s="63">
+        <v>26</v>
+      </c>
+      <c r="O11" s="64">
+        <v>27</v>
+      </c>
+      <c r="P11" s="65">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M12" s="62" t="s">
         <v>682</v>
       </c>
-      <c r="M11" s="55">
-        <v>26</v>
-      </c>
-      <c r="N11" s="56">
-        <v>27</v>
-      </c>
-      <c r="O11" s="54">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L12" s="63" t="s">
+      <c r="N12" s="63">
+        <v>15</v>
+      </c>
+      <c r="O12" s="64">
+        <v>15</v>
+      </c>
+      <c r="P12" s="65">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M13" s="62" t="s">
         <v>683</v>
       </c>
-      <c r="M12" s="55">
-        <v>15</v>
-      </c>
-      <c r="N12" s="56">
-        <v>15</v>
-      </c>
-      <c r="O12" s="54">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L13" s="63" t="s">
+      <c r="N13" s="63">
+        <v>16</v>
+      </c>
+      <c r="O13" s="64">
+        <v>16</v>
+      </c>
+      <c r="P13" s="65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M14" s="62" t="s">
         <v>684</v>
       </c>
-      <c r="M13" s="55">
-        <v>16</v>
-      </c>
-      <c r="N13" s="56">
-        <v>16</v>
-      </c>
-      <c r="O13" s="54">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L14" s="63" t="s">
-        <v>685</v>
-      </c>
-      <c r="M14" s="55">
+      <c r="N14" s="63">
         <v>6</v>
       </c>
-      <c r="N14" s="56">
+      <c r="O14" s="64">
         <v>6</v>
       </c>
-      <c r="O14" s="54">
+      <c r="P14" s="65">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L15" s="53" t="s">
-        <v>691</v>
-      </c>
-      <c r="M15" s="53">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M15" s="53" t="s">
+        <v>689</v>
+      </c>
+      <c r="N15" s="66">
         <v>176</v>
       </c>
-      <c r="N15" s="53">
+      <c r="O15" s="66">
         <v>180</v>
       </c>
-      <c r="O15" s="57">
+      <c r="P15" s="67">
         <v>197</v>
       </c>
     </row>
     <row r="24" spans="6:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="F24" s="62" t="s">
-        <v>703</v>
+      <c r="F24" s="55" t="s">
+        <v>700</v>
       </c>
       <c r="G24" s="51" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="H24" s="52"/>
       <c r="I24" s="52"/>
@@ -46139,24 +46508,24 @@
     </row>
     <row r="25" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F25" s="51" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="G25" s="52" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="H25" s="52" t="s">
+        <v>702</v>
+      </c>
+      <c r="I25" s="52" t="s">
         <v>705</v>
       </c>
-      <c r="I25" s="52" t="s">
-        <v>708</v>
-      </c>
       <c r="J25" s="52" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="26" spans="6:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F26" s="53" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G26" s="58">
         <v>3</v>
@@ -46171,7 +46540,7 @@
     </row>
     <row r="27" spans="6:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F27" s="53" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G27" s="58">
         <v>3</v>
@@ -46188,7 +46557,7 @@
     </row>
     <row r="28" spans="6:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F28" s="53" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G28" s="58">
         <v>5</v>
@@ -46205,7 +46574,7 @@
     </row>
     <row r="29" spans="6:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F29" s="53" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G29" s="58">
         <v>1</v>
@@ -46222,7 +46591,7 @@
     </row>
     <row r="30" spans="6:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F30" s="53" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G30" s="58">
         <v>1</v>
@@ -46237,7 +46606,7 @@
     </row>
     <row r="31" spans="6:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F31" s="53" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G31" s="58">
         <v>4</v>
@@ -46252,23 +46621,23 @@
     </row>
     <row r="32" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F32" s="53" t="s">
-        <v>706</v>
-      </c>
-      <c r="G32" s="52">
+        <v>703</v>
+      </c>
+      <c r="G32" s="57">
         <v>17</v>
       </c>
-      <c r="H32" s="52">
+      <c r="H32" s="57">
         <v>176</v>
       </c>
-      <c r="I32" s="52">
+      <c r="I32" s="57">
         <v>4</v>
       </c>
-      <c r="J32" s="52">
+      <c r="J32" s="57">
         <v>197</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yhuQOyOj+hHbVZHyG4ItpGxi2t9VTHcqN8cCrkaonUwTzlBfCeLYwvbxuJcO3PCSCALQE1vqkJRm38fuzpFp3Q==" saltValue="hirJAti+9J0Iv3VGhjqXNw==" spinCount="100000" sheet="1" scenarios="1" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UsmPE1qHLxZSYdFb4YFQq8HqNqPzANzVnyYG2lSbkDhqXybgFr08y9knTrJHxzAELcH5LcUFQrLDYSGZImCsrQ==" saltValue="pmjFK4r8z9Qa2FM9jR9wLw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
   <drawing r:id="rId4"/>
@@ -46294,51 +46663,51 @@
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="49">
         <f ca="1">TODAY()</f>
-        <v>45407</v>
+        <v>45427</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>679</v>
+        <v>706</v>
       </c>
       <c r="F2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E3" s="37" t="s">
         <v>391</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="56">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E4" s="37" t="s">
-        <v>697</v>
-      </c>
-      <c r="F4">
+        <v>694</v>
+      </c>
+      <c r="F4" s="56">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E5" s="37" t="s">
-        <v>693</v>
-      </c>
-      <c r="F5">
+        <v>707</v>
+      </c>
+      <c r="F5" s="56">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E6" s="37" t="s">
-        <v>699</v>
-      </c>
-      <c r="F6">
+        <v>696</v>
+      </c>
+      <c r="F6" s="56">
         <v>12</v>
       </c>
     </row>
@@ -46346,7 +46715,7 @@
       <c r="E7" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="56">
         <v>13</v>
       </c>
     </row>
@@ -46354,7 +46723,7 @@
       <c r="E8" s="37" t="s">
         <v>449</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="56">
         <v>16</v>
       </c>
     </row>
@@ -46362,15 +46731,15 @@
       <c r="E9" s="37" t="s">
         <v>436</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="56">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E10" s="37" t="s">
-        <v>698</v>
-      </c>
-      <c r="F10">
+        <v>695</v>
+      </c>
+      <c r="F10" s="56">
         <v>21</v>
       </c>
     </row>
@@ -46378,15 +46747,15 @@
       <c r="E11" s="37" t="s">
         <v>445</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="56">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E12" s="37" t="s">
-        <v>696</v>
-      </c>
-      <c r="F12">
+        <v>693</v>
+      </c>
+      <c r="F12" s="56">
         <v>30</v>
       </c>
     </row>
@@ -46394,15 +46763,15 @@
       <c r="E13" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="56">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E14" s="37" t="s">
-        <v>686</v>
-      </c>
-      <c r="F14">
+        <v>708</v>
+      </c>
+      <c r="F14" s="56">
         <v>197</v>
       </c>
     </row>
